--- a/comparaison pour agent count.xlsx
+++ b/comparaison pour agent count.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>1.0</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Alpha = 0,5</t>
   </si>
 </sst>
 </file>
@@ -976,56 +979,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Comparaison </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR"/>
-              <a:t>α</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>=1,0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>α</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>=2,0 </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1071,7 +1024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Alpha = 1,0</c:v>
+                  <c:v>Alpha = 0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1418,307 +1371,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3578</c:v>
+                  <c:v>16295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1501</c:v>
+                  <c:v>9111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>836</c:v>
+                  <c:v>10153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>797</c:v>
+                  <c:v>3568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>772</c:v>
+                  <c:v>5669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>562</c:v>
+                  <c:v>2743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>381</c:v>
+                  <c:v>4139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>278</c:v>
+                  <c:v>2584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>472</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>308</c:v>
+                  <c:v>1807</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>304</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="96">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>6</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,7 +1687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Alpha = 2,0</c:v>
+                  <c:v>Alpha = 1,0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,6 +2034,669 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>3578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 2,0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$A$5:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MASsize = 300'!$D$5:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
                   <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2382,6 +2998,669 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$A$5:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MASsize = 300'!$E$5:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2398,77 +3677,16 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82039072"/>
-        <c:axId val="82034368"/>
+        <c:axId val="288733992"/>
+        <c:axId val="288735560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82039072"/>
+        <c:axId val="288733992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Nombre</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> de Patch</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2506,7 +3724,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82034368"/>
+        <c:crossAx val="288735560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +3732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82034368"/>
+        <c:axId val="288735560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,62 +3752,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Itérations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2621,7 +3783,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82039072"/>
+        <c:crossAx val="288733992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2717,31 +3879,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>de 40 à 101</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2787,7 +3924,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Alpha = 1,0</c:v>
+                  <c:v>Alpha = 0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2818,193 +3955,73 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MASsize = 300'!$A$44:$A$105</c:f>
+              <c:f>'MASsize = 300'!$A$84:$A$105</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.0</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.0</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>101.0</c:v>
                 </c:pt>
               </c:strCache>
@@ -3012,195 +4029,75 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MASsize = 300'!$B$44:$B$105</c:f>
+              <c:f>'MASsize = 300'!$B$84:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,7 +4113,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Alpha = 2,0</c:v>
+                  <c:v>Alpha = 1,0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3247,193 +4144,73 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MASsize = 300'!$A$44:$A$105</c:f>
+              <c:f>'MASsize = 300'!$A$84:$A$105</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.0</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.0</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
                   <c:v>101.0</c:v>
                 </c:pt>
               </c:strCache>
@@ -3441,36 +4218,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MASsize = 300'!$C$44:$C$105</c:f>
+              <c:f>'MASsize = 300'!$C$84:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
@@ -3479,7 +4256,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12</c:v>
@@ -3491,145 +4268,403 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 2,0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$A$84:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.0</c:v>
+                </c:pt>
                 <c:pt idx="16">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MASsize = 300'!$D$84:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MASsize = 300'!$A$84:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MASsize = 300'!$E$84:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,11 +4681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322717448"/>
-        <c:axId val="322718624"/>
+        <c:axId val="222655712"/>
+        <c:axId val="288731640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322717448"/>
+        <c:axId val="222655712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +4728,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322718624"/>
+        <c:crossAx val="288731640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3701,7 +4736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322718624"/>
+        <c:axId val="288731640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,2278 +4787,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322717448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>de 90 à 101</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alpha = 1,0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$A$94:$A$105</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>101.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'MASsize = 300'!$B$94:$B$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alpha = 2,0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$A$94:$A$105</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>101.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'MASsize = 300'!$C$94:$C$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="322725680"/>
-        <c:axId val="322720976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="322725680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="322720976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="322720976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="322725680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Comparaison avec Random de 30 à 101</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alpha = 1,0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$A$34:$A$105</c:f>
-              <c:strCache>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>101.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'MASsize = 300'!$B$34:$B$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alpha = 2,0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$A$34:$A$105</c:f>
-              <c:strCache>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>101.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'MASsize = 300'!$C$34:$C$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'MASsize = 300'!$A$34:$A$105</c:f>
-              <c:strCache>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>101.0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'MASsize = 300'!$D$34:$D$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="325512184"/>
-        <c:axId val="325512576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="325512184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="325512576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="325512576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="325512184"/>
+        <c:crossAx val="222655712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,83 +4916,6 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7267,1033 +5954,25 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8309,20 +5988,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8334,68 +6013,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8667,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8681,7 +6298,7 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>110</v>
       </c>
@@ -8692,1464 +6309,1770 @@
         <v>111</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
+        <v>16295</v>
+      </c>
+      <c r="C5">
         <v>3578</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>860</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5784</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
+        <v>9111</v>
+      </c>
+      <c r="C6">
         <v>1501</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>626</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2910</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
+        <v>10153</v>
+      </c>
+      <c r="C7">
         <v>836</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>306</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1528</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
+        <v>3568</v>
+      </c>
+      <c r="C8">
         <v>797</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>327</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>971</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
+        <v>5669</v>
+      </c>
+      <c r="C9">
         <v>772</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>211</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>668</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
+        <v>2743</v>
+      </c>
+      <c r="C10">
         <v>562</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>127</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>806</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
+        <v>4139</v>
+      </c>
+      <c r="C11">
         <v>381</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>140</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>567</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
+        <v>2584</v>
+      </c>
+      <c r="C12">
         <v>278</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>79</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>563</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
+        <v>2005</v>
+      </c>
+      <c r="C13">
         <v>472</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>96</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>629</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
+        <v>1807</v>
+      </c>
+      <c r="C14">
         <v>308</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>88</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15">
+        <v>1515</v>
+      </c>
+      <c r="C15">
         <v>304</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>91</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
+        <v>1840</v>
+      </c>
+      <c r="C16">
         <v>262</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>75</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
+        <v>1653</v>
+      </c>
+      <c r="C17">
         <v>192</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>66</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
+        <v>997</v>
+      </c>
+      <c r="C18">
         <v>212</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>72</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
+        <v>1438</v>
+      </c>
+      <c r="C19">
         <v>135</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>49</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20">
+        <v>1356</v>
+      </c>
+      <c r="C20">
         <v>147</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>43</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21">
+        <v>973</v>
+      </c>
+      <c r="C21">
         <v>120</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>57</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22">
+        <v>783</v>
+      </c>
+      <c r="C22">
         <v>127</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>46</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
+        <v>743</v>
+      </c>
+      <c r="C23">
         <v>166</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>27</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24">
+        <v>1200</v>
+      </c>
+      <c r="C24">
         <v>102</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>34</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25">
+        <v>820</v>
+      </c>
+      <c r="C25">
         <v>132</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>34</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26">
+        <v>846</v>
+      </c>
+      <c r="C26">
         <v>92</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
+        <v>571</v>
+      </c>
+      <c r="C27">
         <v>100</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>37</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28">
+        <v>880</v>
+      </c>
+      <c r="C28">
         <v>92</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>29</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
+        <v>563</v>
+      </c>
+      <c r="C29">
         <v>74</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
+        <v>460</v>
+      </c>
+      <c r="C30">
         <v>64</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31">
+        <v>809</v>
+      </c>
+      <c r="C31">
         <v>89</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>24</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32">
         <v>78</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>28</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33">
+        <v>586</v>
+      </c>
+      <c r="C33">
         <v>74</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>22</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34">
+        <v>350</v>
+      </c>
+      <c r="C34">
         <v>77</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>23</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35">
+        <v>418</v>
+      </c>
+      <c r="C35">
         <v>76</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>21</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36">
+        <v>474</v>
+      </c>
+      <c r="C36">
         <v>71</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37">
+        <v>519</v>
+      </c>
+      <c r="C37">
         <v>38</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>18</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
+        <v>582</v>
+      </c>
+      <c r="C38">
         <v>92</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
+        <v>446</v>
+      </c>
+      <c r="C39">
         <v>32</v>
-      </c>
-      <c r="C39">
-        <v>23</v>
       </c>
       <c r="D39">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
+        <v>523</v>
+      </c>
+      <c r="C40">
         <v>55</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
+        <v>291</v>
+      </c>
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42">
+        <v>439</v>
+      </c>
+      <c r="C42">
         <v>77</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43">
+        <v>414</v>
+      </c>
+      <c r="C43">
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44">
+        <v>486</v>
+      </c>
+      <c r="C44">
         <v>33</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45">
+        <v>358</v>
+      </c>
+      <c r="C45">
         <v>52</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46">
+        <v>270</v>
+      </c>
+      <c r="C46">
         <v>37</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>15</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47">
+        <v>272</v>
+      </c>
+      <c r="C47">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48">
+        <v>269</v>
+      </c>
+      <c r="C48">
         <v>33</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>16</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49">
+        <v>232</v>
+      </c>
+      <c r="C49">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50">
+        <v>277</v>
+      </c>
+      <c r="C50">
         <v>27</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>10</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
       <c r="B51">
+        <v>327</v>
+      </c>
+      <c r="C51">
         <v>31</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52">
+        <v>353</v>
+      </c>
+      <c r="C52">
         <v>43</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>48</v>
       </c>
       <c r="B53">
+        <v>349</v>
+      </c>
+      <c r="C53">
         <v>29</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>9</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54">
+        <v>390</v>
+      </c>
+      <c r="C54">
         <v>41</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>8</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="C55">
         <v>19</v>
       </c>
       <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
       <c r="B56">
+        <v>274</v>
+      </c>
+      <c r="C56">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>12</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>52</v>
       </c>
       <c r="B57">
+        <v>287</v>
+      </c>
+      <c r="C57">
         <v>23</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>10</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
       <c r="B58">
+        <v>254</v>
+      </c>
+      <c r="C58">
         <v>27</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>8</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59">
+        <v>399</v>
+      </c>
+      <c r="C59">
         <v>31</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60">
+        <v>202</v>
+      </c>
+      <c r="C60">
         <v>27</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61">
+        <v>235</v>
+      </c>
+      <c r="C61">
         <v>37</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>10</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>57</v>
       </c>
       <c r="B62">
+        <v>177</v>
+      </c>
+      <c r="C62">
         <v>20</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>7</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>58</v>
       </c>
       <c r="B63">
+        <v>223</v>
+      </c>
+      <c r="C63">
         <v>32</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
       <c r="B64">
+        <v>214</v>
+      </c>
+      <c r="C64">
         <v>23</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>10</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>60</v>
       </c>
       <c r="B65">
+        <v>231</v>
+      </c>
+      <c r="C65">
         <v>40</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>8</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
       <c r="B66">
+        <v>161</v>
+      </c>
+      <c r="C66">
         <v>15</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>8</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
       <c r="B67">
+        <v>215</v>
+      </c>
+      <c r="C67">
         <v>16</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>4</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
       <c r="B68">
+        <v>259</v>
+      </c>
+      <c r="C68">
         <v>24</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>6</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>64</v>
       </c>
       <c r="B69">
+        <v>142</v>
+      </c>
+      <c r="C69">
         <v>23</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>5</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
       <c r="B70">
+        <v>230</v>
+      </c>
+      <c r="C70">
         <v>16</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71">
+        <v>182</v>
+      </c>
+      <c r="C71">
         <v>11</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>9</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72">
+        <v>159</v>
+      </c>
+      <c r="C72">
         <v>19</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
       <c r="B73">
+        <v>179</v>
+      </c>
+      <c r="C73">
         <v>22</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>4</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>69</v>
       </c>
       <c r="B74">
+        <v>199</v>
+      </c>
+      <c r="C74">
         <v>30</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>4</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75">
+        <v>162</v>
+      </c>
+      <c r="C75">
         <v>14</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76">
+        <v>202</v>
+      </c>
+      <c r="C76">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
       <c r="B77">
+        <v>148</v>
+      </c>
+      <c r="C77">
         <v>14</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>4</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="B78">
+        <v>180</v>
+      </c>
+      <c r="C78">
         <v>14</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>4</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79">
+        <v>219</v>
+      </c>
+      <c r="C79">
         <v>22</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>5</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80">
+        <v>157</v>
+      </c>
+      <c r="C80">
         <v>22</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>3</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81">
+        <v>217</v>
+      </c>
+      <c r="C81">
         <v>12</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>3</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82">
+        <v>143</v>
+      </c>
+      <c r="C82">
         <v>10</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83">
+        <v>104</v>
+      </c>
+      <c r="C83">
         <v>8</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>79</v>
       </c>
       <c r="B84">
+        <v>245</v>
+      </c>
+      <c r="C84">
         <v>13</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>3</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
       <c r="B85">
+        <v>187</v>
+      </c>
+      <c r="C85">
         <v>15</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>3</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
       <c r="B86">
+        <v>136</v>
+      </c>
+      <c r="C86">
         <v>13</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
       <c r="B87">
+        <v>143</v>
+      </c>
+      <c r="C87">
         <v>13</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>4</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
       <c r="B88">
+        <v>148</v>
+      </c>
+      <c r="C88">
         <v>8</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
       <c r="B89">
+        <v>206</v>
+      </c>
+      <c r="C89">
         <v>16</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>2</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>85</v>
       </c>
       <c r="B90">
+        <v>165</v>
+      </c>
+      <c r="C90">
         <v>11</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
       <c r="B91">
+        <v>105</v>
+      </c>
+      <c r="C91">
         <v>13</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>2</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
       <c r="B92">
+        <v>190</v>
+      </c>
+      <c r="C92">
         <v>9</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>88</v>
       </c>
       <c r="B93">
+        <v>126</v>
+      </c>
+      <c r="C93">
         <v>9</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>3</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>89</v>
       </c>
       <c r="B94">
+        <v>99</v>
+      </c>
+      <c r="C94">
         <v>8</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
       </c>
       <c r="D94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>90</v>
       </c>
       <c r="B95">
+        <v>101</v>
+      </c>
+      <c r="C95">
         <v>18</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>91</v>
       </c>
       <c r="B96">
+        <v>114</v>
+      </c>
+      <c r="C96">
         <v>12</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>5</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>92</v>
       </c>
       <c r="B97">
+        <v>108</v>
+      </c>
+      <c r="C97">
         <v>10</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>3</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>93</v>
       </c>
       <c r="B98">
+        <v>154</v>
+      </c>
+      <c r="C98">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>3</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>94</v>
       </c>
       <c r="B99">
+        <v>151</v>
+      </c>
+      <c r="C99">
         <v>8</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>95</v>
       </c>
       <c r="B100">
+        <v>135</v>
+      </c>
+      <c r="C100">
         <v>9</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
       <c r="B101">
+        <v>109</v>
+      </c>
+      <c r="C101">
         <v>5</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
       <c r="B102">
+        <v>71</v>
+      </c>
+      <c r="C102">
         <v>10</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
       </c>
       <c r="D102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
       <c r="B103">
+        <v>146</v>
+      </c>
+      <c r="C103">
         <v>13</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>5</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
       <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
         <v>8</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>3</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
       <c r="B105">
+        <v>116</v>
+      </c>
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>4</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>2</v>
       </c>
     </row>
